--- a/Test/Lawnmower/T2/Sensors_data_1000011.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000011.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,16 +475,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9970030478461241</v>
+        <v>0.7664840252684613</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0001420007198527191</v>
+        <v>0.007305572491832603</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2894087626439634</v>
+        <v>0.3427884093292128</v>
       </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.9751016298434647</v>
+        <v>0.998704124640623</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001110807860282876</v>
+        <v>8.677619810567161e-05</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2991739843082314</v>
+        <v>0.01074896236434592</v>
       </c>
       <c r="F3" t="n">
         <v>5</v>
@@ -525,43 +525,18 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9731772284997388</v>
+        <v>0.9765382049763454</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0008153620232687878</v>
+        <v>0.00203600387944494</v>
       </c>
       <c r="E4" t="n">
-        <v>0.02800832765612593</v>
+        <v>0.01143097461852238</v>
       </c>
       <c r="F4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>s4</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.6536554047423097</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.01237957875889499</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.0194225303366104</v>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" t="n">
         <v>0</v>
       </c>
     </row>
